--- a/curvefit/VAE/cv_SANS/S3.xlsx
+++ b/curvefit/VAE/cv_SANS/S3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Documents\Project\contrast_variation\cv_SANS\curvefit\VAE\cv_SANS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9150E43-E1B3-4F2F-AB52-FC9E956D6476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434CA932-081A-4B0C-A104-C3F34B13B405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{37BAC6F9-706E-46F8-86F4-8BA689A019F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{37BAC6F9-706E-46F8-86F4-8BA689A019F1}"/>
   </bookViews>
   <sheets>
     <sheet name="S(Q)" sheetId="1" r:id="rId1"/>
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A7B71E-80D7-40D2-8AF6-78A765241BB8}">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -459,882 +459,1157 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0.2</v>
+        <v>0.58250241999999997</v>
       </c>
       <c r="B2" s="1">
-        <v>0.2</v>
+        <v>5.5231051999999996E-3</v>
       </c>
       <c r="C2" s="1">
-        <v>4.8741195350885301E-2</v>
+        <v>5.9339814358333999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>0.4</v>
+        <v>0.60086249999999997</v>
       </c>
       <c r="B3" s="1">
-        <v>0.4</v>
+        <v>5.6971898000000003E-3</v>
       </c>
       <c r="C3" s="1">
-        <v>5.5447362363338401E-2</v>
+        <v>5.9694058959357803E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>0.59999999999999898</v>
+        <v>0.61980146000000003</v>
       </c>
       <c r="B4" s="1">
-        <v>0.59999999999999898</v>
+        <v>5.8767628000000001E-3</v>
       </c>
       <c r="C4" s="1">
-        <v>6.06311447918415E-2</v>
+        <v>6.0160225442967397E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>0.8</v>
+        <v>0.63933724000000003</v>
       </c>
       <c r="B5" s="1">
-        <v>0.8</v>
+        <v>6.0619949000000001E-3</v>
       </c>
       <c r="C5" s="1">
-        <v>6.6250488162040697E-2</v>
+        <v>6.0641083006822999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>0.65948885999999995</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>6.2530659999999998E-3</v>
       </c>
       <c r="C6" s="1">
-        <v>7.0554010570049203E-2</v>
+        <v>6.1137098264680702E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>1.19999999999999</v>
+        <v>0.68027561999999997</v>
       </c>
       <c r="B7" s="1">
-        <v>1.19999999999999</v>
+        <v>6.4501599000000003E-3</v>
       </c>
       <c r="C7" s="1">
-        <v>7.9079464077949496E-2</v>
+        <v>6.1648748709891503E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>1.3999999999999899</v>
+        <v>0.70171749999999999</v>
       </c>
       <c r="B8" s="1">
-        <v>1.3999999999999899</v>
+        <v>6.6534649000000003E-3</v>
       </c>
       <c r="C8" s="1">
-        <v>8.6882367730140603E-2</v>
+        <v>6.2176522715402097E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>1.6</v>
+        <v>0.72383529000000002</v>
       </c>
       <c r="B9" s="1">
-        <v>1.6</v>
+        <v>6.8631791999999997E-3</v>
       </c>
       <c r="C9" s="1">
-        <v>9.5987267792224801E-2</v>
+        <v>6.2720935248725296E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>1.8</v>
+        <v>0.74665022000000003</v>
       </c>
       <c r="B10" s="1">
-        <v>1.8</v>
+        <v>7.079503E-3</v>
       </c>
       <c r="C10" s="1">
-        <v>0.105856709182262</v>
+        <v>6.3282506112749895E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>2</v>
+        <v>0.77018421999999997</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>7.3026450999999996E-3</v>
       </c>
       <c r="C11" s="1">
-        <v>0.12025311589241</v>
+        <v>6.3861776869555201E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>2.2000000000000002</v>
+        <v>0.79446006000000002</v>
       </c>
       <c r="B12" s="1">
-        <v>2.2000000000000002</v>
+        <v>7.5328210000000003E-3</v>
       </c>
       <c r="C12" s="1">
-        <v>0.13598944246768899</v>
+        <v>6.4459307213879297E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>2.3999999999999901</v>
+        <v>0.81950109999999998</v>
       </c>
       <c r="B13" s="1">
-        <v>2.3999999999999901</v>
+        <v>7.7702518999999996E-3</v>
       </c>
       <c r="C13" s="1">
-        <v>0.154688671231269</v>
+        <v>6.5184529761530594E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>2.6</v>
+        <v>0.84533130999999995</v>
       </c>
       <c r="B14" s="1">
-        <v>2.6</v>
+        <v>8.0151660000000007E-3</v>
       </c>
       <c r="C14" s="1">
-        <v>0.17506663501262601</v>
+        <v>6.5964508796559795E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>2.7999999999999901</v>
+        <v>0.87197577999999998</v>
       </c>
       <c r="B15" s="1">
-        <v>2.7999999999999901</v>
+        <v>8.2678002999999993E-3</v>
       </c>
       <c r="C15" s="1">
-        <v>0.203036159276962</v>
+        <v>6.6769074383558405E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>3</v>
+        <v>0.89946002000000003</v>
       </c>
       <c r="B16" s="1">
-        <v>3</v>
+        <v>8.5283974000000002E-3</v>
       </c>
       <c r="C16" s="1">
-        <v>0.237559840083122</v>
+        <v>6.7598999162225698E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>3.2</v>
+        <v>0.92781049000000004</v>
       </c>
       <c r="B17" s="1">
-        <v>3.2</v>
+        <v>8.7972077999999999E-3</v>
       </c>
       <c r="C17" s="1">
-        <v>0.27675938606262201</v>
+        <v>6.8455080983153505E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>3.3999999999999901</v>
+        <v>0.95705461999999997</v>
       </c>
       <c r="B18" s="1">
-        <v>3.3999999999999901</v>
+        <v>9.0744914000000006E-3</v>
       </c>
       <c r="C18" s="1">
-        <v>0.323884427547454</v>
+        <v>6.9338147356806698E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>3.6</v>
+        <v>0.98722047000000002</v>
       </c>
       <c r="B19" s="1">
-        <v>3.6</v>
+        <v>9.3605145999999997E-3</v>
       </c>
       <c r="C19" s="1">
-        <v>0.38257828354835499</v>
+        <v>7.0249046555561703E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>3.7999999999999901</v>
+        <v>1.0183371000000001</v>
       </c>
       <c r="B20" s="1">
-        <v>3.7999999999999901</v>
+        <v>9.6555528999999994E-3</v>
       </c>
       <c r="C20" s="1">
-        <v>0.45727282762527399</v>
+        <v>7.1291017542709501E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>4</v>
+        <v>1.0504347000000001</v>
       </c>
       <c r="B21" s="1">
-        <v>4</v>
+        <v>9.9598923999999998E-3</v>
       </c>
       <c r="C21" s="1">
-        <v>0.541756451129913</v>
+        <v>7.2439423213470494E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>4.2</v>
+        <v>1.0835435</v>
       </c>
       <c r="B22" s="1">
-        <v>4.2</v>
+        <v>1.0273819999999999E-2</v>
       </c>
       <c r="C22" s="1">
-        <v>0.64759951829910201</v>
+        <v>7.36240084668906E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>4.4000000000000004</v>
+        <v>1.1176968</v>
       </c>
       <c r="B23" s="1">
-        <v>4.4000000000000004</v>
+        <v>1.059765E-2</v>
       </c>
       <c r="C23" s="1">
-        <v>0.76860237121581998</v>
+        <v>7.4845961131909902E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>4.5999999999999899</v>
+        <v>1.1529256999999999</v>
       </c>
       <c r="B24" s="1">
-        <v>4.5999999999999899</v>
+        <v>1.0931679999999999E-2</v>
       </c>
       <c r="C24" s="1">
-        <v>0.91695010662078802</v>
+        <v>7.6106402266019099E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>4.7999999999999901</v>
+        <v>1.1892654</v>
       </c>
       <c r="B25" s="1">
-        <v>4.7999999999999901</v>
+        <v>1.127624E-2</v>
       </c>
       <c r="C25" s="1">
-        <v>1.0880167484283401</v>
+        <v>7.7406579441034198E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>5</v>
+        <v>1.2267503</v>
       </c>
       <c r="B26" s="1">
-        <v>5</v>
+        <v>1.163166E-2</v>
       </c>
       <c r="C26" s="1">
-        <v>1.2505013942718499</v>
+        <v>7.8747660840586695E-2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>5.2</v>
+        <v>1.2654173</v>
       </c>
       <c r="B27" s="1">
-        <v>5.2</v>
+        <v>1.199829E-2</v>
       </c>
       <c r="C27" s="1">
-        <v>1.3498883247375399</v>
+        <v>8.01310114748333E-2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>5.4</v>
+        <v>1.3053026000000001</v>
       </c>
       <c r="B28" s="1">
-        <v>5.4</v>
+        <v>1.2376470000000001E-2</v>
       </c>
       <c r="C28" s="1">
-        <v>1.39311718940734</v>
+        <v>8.1557939484863604E-2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>5.5999999999999899</v>
+        <v>1.3464451</v>
       </c>
       <c r="B29" s="1">
-        <v>5.5999999999999899</v>
+        <v>1.276657E-2</v>
       </c>
       <c r="C29" s="1">
-        <v>1.4117505550384499</v>
+        <v>8.3029846965100601E-2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>5.7999999999999901</v>
+        <v>1.3888837999999999</v>
       </c>
       <c r="B30" s="1">
-        <v>5.7999999999999901</v>
+        <v>1.316896E-2</v>
       </c>
       <c r="C30" s="1">
-        <v>1.3709896802902199</v>
+        <v>8.4548125467903607E-2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>6</v>
+        <v>1.4326608000000001</v>
       </c>
       <c r="B31" s="1">
-        <v>6</v>
+        <v>1.358404E-2</v>
       </c>
       <c r="C31" s="1">
-        <v>1.3196768760681099</v>
+        <v>8.6420893760995904E-2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>6.2</v>
+        <v>1.4778172999999999</v>
       </c>
       <c r="B32" s="1">
-        <v>6.2</v>
+        <v>1.4012200000000001E-2</v>
       </c>
       <c r="C32" s="1">
-        <v>1.2487423419952299</v>
+        <v>8.8460317682068496E-2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>6.4</v>
+        <v>1.5243975999999999</v>
       </c>
       <c r="B33" s="1">
-        <v>6.4</v>
+        <v>1.4453860000000001E-2</v>
       </c>
       <c r="C33" s="1">
-        <v>1.16394019126892</v>
+        <v>9.05640473831478E-2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>6.5999999999999899</v>
+        <v>1.5724461000000001</v>
       </c>
       <c r="B34" s="1">
-        <v>6.5999999999999899</v>
+        <v>1.4909439999999999E-2</v>
       </c>
       <c r="C34" s="1">
-        <v>1.10079622268676</v>
+        <v>9.2734079111543799E-2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>6.7999999999999901</v>
+        <v>1.622009</v>
       </c>
       <c r="B35" s="1">
-        <v>6.7999999999999901</v>
+        <v>1.537938E-2</v>
       </c>
       <c r="C35" s="1">
-        <v>1.0374326705932599</v>
+        <v>9.5148437685332696E-2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>7</v>
+        <v>1.6731339000000001</v>
       </c>
       <c r="B36" s="1">
-        <v>7</v>
+        <v>1.5864130000000001E-2</v>
       </c>
       <c r="C36" s="1">
-        <v>1.00098752975463</v>
+        <v>9.7866062386581895E-2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>7.2</v>
+        <v>1.7258704</v>
       </c>
       <c r="B37" s="1">
-        <v>7.2</v>
+        <v>1.6364160999999999E-2</v>
       </c>
       <c r="C37" s="1">
-        <v>0.96377736330032304</v>
+        <v>0.100669356883753</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>7.4</v>
+        <v>1.7802688</v>
       </c>
       <c r="B38" s="1">
-        <v>7.4</v>
+        <v>1.6879950000000001E-2</v>
       </c>
       <c r="C38" s="1">
-        <v>0.93568819761276201</v>
+        <v>0.103560994442052</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>7.5999999999999899</v>
+        <v>1.8363811999999999</v>
       </c>
       <c r="B39" s="1">
-        <v>7.5999999999999899</v>
+        <v>1.7411989999999999E-2</v>
       </c>
       <c r="C39" s="1">
-        <v>0.92554867267608598</v>
+        <v>0.10686849113647499</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>7.7999999999999901</v>
+        <v>1.8942633</v>
       </c>
       <c r="B40" s="1">
-        <v>7.7999999999999901</v>
+        <v>1.7960809000000001E-2</v>
       </c>
       <c r="C40" s="1">
-        <v>0.90921956300735396</v>
+        <v>0.110461975399769</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>8</v>
+        <v>1.9539701</v>
       </c>
       <c r="B41" s="1">
-        <v>8</v>
+        <v>1.852693E-2</v>
       </c>
       <c r="C41" s="1">
-        <v>0.90597987174987704</v>
+        <v>0.114168748112965</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>8.1999999999999904</v>
+        <v>2.0155582000000001</v>
       </c>
       <c r="B42" s="1">
-        <v>8.1999999999999904</v>
+        <v>1.9110889999999998E-2</v>
       </c>
       <c r="C42" s="1">
-        <v>0.90613770484924305</v>
+        <v>0.118158378956617</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>8.4</v>
+        <v>2.0790869999999999</v>
       </c>
       <c r="B43" s="1">
-        <v>8.4</v>
+        <v>1.9713251000000001E-2</v>
       </c>
       <c r="C43" s="1">
-        <v>0.90939712524413996</v>
+        <v>0.12278049831368</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>8.5999999999999908</v>
+        <v>2.1446185</v>
       </c>
       <c r="B44" s="1">
-        <v>8.5999999999999908</v>
+        <v>2.0334600000000001E-2</v>
       </c>
       <c r="C44" s="1">
-        <v>0.90937209129333396</v>
+        <v>0.12754831755238999</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>8.8000000000000007</v>
+        <v>2.2122161</v>
       </c>
       <c r="B45" s="1">
-        <v>8.8000000000000007</v>
+        <v>2.0975539000000001E-2</v>
       </c>
       <c r="C45" s="1">
-        <v>0.92459994554519598</v>
+        <v>0.13266272588283701</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>9</v>
+        <v>2.2819443000000001</v>
       </c>
       <c r="B46" s="1">
-        <v>9</v>
+        <v>2.1636679999999998E-2</v>
       </c>
       <c r="C46" s="1">
-        <v>0.93275910615920998</v>
+        <v>0.13885609117596001</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>9.1999999999999904</v>
+        <v>2.3538703999999999</v>
       </c>
       <c r="B47" s="1">
-        <v>9.1999999999999904</v>
+        <v>2.2318659000000001E-2</v>
       </c>
       <c r="C47" s="1">
-        <v>0.94895601272582997</v>
+        <v>0.14524467257430401</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>9.4</v>
+        <v>2.4280629</v>
       </c>
       <c r="B48" s="1">
-        <v>9.4</v>
+        <v>2.3022129999999998E-2</v>
       </c>
       <c r="C48" s="1">
-        <v>0.96051394939422596</v>
+        <v>0.152302133040978</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>9.5999999999999908</v>
+        <v>2.5045936000000002</v>
       </c>
       <c r="B49" s="1">
-        <v>9.5999999999999908</v>
+        <v>2.3747770000000001E-2</v>
       </c>
       <c r="C49" s="1">
-        <v>0.97420454025268499</v>
+        <v>0.16037478915179501</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>9.8000000000000007</v>
+        <v>2.5835373000000001</v>
       </c>
       <c r="B50" s="1">
-        <v>9.8000000000000007</v>
+        <v>2.4496291E-2</v>
       </c>
       <c r="C50" s="1">
-        <v>0.99690920114517201</v>
+        <v>0.16870199062015701</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>10</v>
+        <v>2.6649691999999998</v>
       </c>
       <c r="B51" s="1">
-        <v>10</v>
+        <v>2.52684E-2</v>
       </c>
       <c r="C51" s="1">
-        <v>1.00129902362823</v>
+        <v>0.17856071332550699</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>10.1999999999999</v>
+        <v>2.7489678999999998</v>
       </c>
       <c r="B52" s="1">
-        <v>10.1999999999999</v>
+        <v>2.6064850000000001E-2</v>
       </c>
       <c r="C52" s="1">
-        <v>1.02217710018157</v>
+        <v>0.189061952394348</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>10.4</v>
+        <v>2.8356137000000001</v>
       </c>
       <c r="B53" s="1">
-        <v>10.4</v>
+        <v>2.6886400000000001E-2</v>
       </c>
       <c r="C53" s="1">
-        <v>1.03063952922821</v>
+        <v>0.20080799485561099</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>10.5999999999999</v>
+        <v>2.9249914000000001</v>
       </c>
       <c r="B54" s="1">
-        <v>10.5999999999999</v>
+        <v>2.7733849000000001E-2</v>
       </c>
       <c r="C54" s="1">
-        <v>1.02638304233551</v>
+        <v>0.21427513685230901</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>10.8</v>
+        <v>3.017185</v>
       </c>
       <c r="B55" s="1">
-        <v>10.8</v>
+        <v>2.8608000000000001E-2</v>
       </c>
       <c r="C55" s="1">
-        <v>1.0315016508102399</v>
+        <v>0.22866267279343799</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>11</v>
+        <v>3.1122850999999998</v>
       </c>
       <c r="B56" s="1">
-        <v>11</v>
+        <v>2.9509710000000001E-2</v>
       </c>
       <c r="C56" s="1">
-        <v>1.0358852148055999</v>
+        <v>0.245737356437569</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>11.1999999999999</v>
+        <v>3.2103826999999998</v>
       </c>
       <c r="B57" s="1">
-        <v>11.1999999999999</v>
+        <v>3.0439840999999999E-2</v>
       </c>
       <c r="C57" s="1">
-        <v>1.0325579643249501</v>
+        <v>0.26382792387891602</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>11.4</v>
+        <v>3.2629375</v>
       </c>
       <c r="B58" s="1">
-        <v>11.4</v>
+        <v>3.0938150000000001E-2</v>
       </c>
       <c r="C58" s="1">
-        <v>1.02956974506378</v>
+        <v>0.27568198420498202</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>11.5999999999999</v>
+        <v>3.3115725999999999</v>
       </c>
       <c r="B59" s="1">
-        <v>11.5999999999999</v>
+        <v>3.1399291000000003E-2</v>
       </c>
       <c r="C59" s="1">
-        <v>1.0248498916625901</v>
+        <v>0.28665184633943203</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>11.8</v>
+        <v>3.3810813</v>
       </c>
       <c r="B60" s="1">
-        <v>11.8</v>
+        <v>3.2058350999999999E-2</v>
       </c>
       <c r="C60" s="1">
-        <v>1.0162307024002</v>
+        <v>0.30232991429931699</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>12</v>
+        <v>3.4159516999999999</v>
       </c>
       <c r="B61" s="1">
-        <v>12</v>
+        <v>3.2388980999999997E-2</v>
       </c>
       <c r="C61" s="1">
-        <v>1.0143563747405999</v>
+        <v>0.31100076057014597</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>12.1999999999999</v>
+        <v>3.5035012000000001</v>
       </c>
       <c r="B62" s="1">
-        <v>12.1999999999999</v>
+        <v>3.3219099000000002E-2</v>
       </c>
       <c r="C62" s="1">
-        <v>1.00933372974395</v>
+        <v>0.33516965242518598</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>12.4</v>
+        <v>3.5236212999999998</v>
       </c>
       <c r="B63" s="1">
-        <v>12.4</v>
+        <v>3.3409871000000001E-2</v>
       </c>
       <c r="C63" s="1">
-        <v>1.0060175657272299</v>
+        <v>0.34072398662118297</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>12.5999999999999</v>
+        <v>3.6303556000000001</v>
       </c>
       <c r="B64" s="1">
-        <v>12.5999999999999</v>
+        <v>3.4421891000000003E-2</v>
       </c>
       <c r="C64" s="1">
-        <v>0.99537229537963801</v>
+        <v>0.37187945944691703</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>12.8</v>
+        <v>3.6346835999999998</v>
       </c>
       <c r="B65" s="1">
-        <v>12.8</v>
+        <v>3.4462929000000003E-2</v>
       </c>
       <c r="C65" s="1">
-        <v>0.99312508106231601</v>
+        <v>0.37331530784717798</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>13</v>
+        <v>3.7618014999999998</v>
       </c>
       <c r="B66" s="1">
-        <v>13</v>
+        <v>3.566822E-2</v>
       </c>
       <c r="C66" s="1">
-        <v>0.99352502822875899</v>
+        <v>0.41548657681644702</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>13.1999999999999</v>
+        <v>3.8980074</v>
       </c>
       <c r="B67" s="1">
-        <v>13.1999999999999</v>
+        <v>3.6959682000000001E-2</v>
       </c>
       <c r="C67" s="1">
-        <v>0.99007254838943404</v>
+        <v>0.46947502614409897</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>13.4</v>
+        <v>4.0391444999999999</v>
       </c>
       <c r="B68" s="1">
-        <v>13.4</v>
+        <v>3.8297899000000003E-2</v>
       </c>
       <c r="C68" s="1">
-        <v>0.98819905519485396</v>
+        <v>0.53347852922357597</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>13.5999999999999</v>
+        <v>4.1853929000000001</v>
       </c>
       <c r="B69" s="1">
-        <v>13.5999999999999</v>
+        <v>3.9684578999999998E-2</v>
       </c>
       <c r="C69" s="1">
-        <v>0.98659837245941095</v>
+        <v>0.61196445172239</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>13.8</v>
+        <v>4.3369355000000001</v>
       </c>
       <c r="B70" s="1">
-        <v>13.8</v>
+        <v>4.1121459999999999E-2</v>
       </c>
       <c r="C70" s="1">
-        <v>0.99219459295272805</v>
+        <v>0.70847271252613797</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>14</v>
+        <v>4.4939656000000001</v>
       </c>
       <c r="B71" s="1">
-        <v>14</v>
+        <v>4.2610370000000002E-2</v>
       </c>
       <c r="C71" s="1">
-        <v>0.99154585599899203</v>
+        <v>0.81648226580767502</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>14.1999999999999</v>
+        <v>4.6566815000000004</v>
       </c>
       <c r="B72" s="1">
-        <v>14.1999999999999</v>
+        <v>4.4153191000000001E-2</v>
       </c>
       <c r="C72" s="1">
-        <v>0.98975247144698997</v>
+        <v>0.93483512806063895</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>14.4</v>
+        <v>4.8252883000000004</v>
       </c>
       <c r="B73" s="1">
-        <v>14.4</v>
+        <v>4.575187E-2</v>
       </c>
       <c r="C73" s="1">
-        <v>0.99154084920883101</v>
+        <v>1.0603651559154701</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>14.5999999999999</v>
+        <v>5</v>
       </c>
       <c r="B74" s="1">
-        <v>14.5999999999999</v>
+        <v>4.7408432E-2</v>
       </c>
       <c r="C74" s="1">
-        <v>0.99475848674774103</v>
+        <v>1.1843053388494</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>14.8</v>
+        <v>5.1810384000000003</v>
       </c>
       <c r="B75" s="1">
-        <v>14.8</v>
+        <v>4.9124978E-2</v>
       </c>
       <c r="C75" s="1">
-        <v>1.00144875049591</v>
+        <v>1.2905569426119701</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>15</v>
+        <v>5.3686318000000002</v>
       </c>
       <c r="B76" s="1">
-        <v>15</v>
+        <v>5.0903681999999999E-2</v>
       </c>
       <c r="C76" s="1">
-        <v>1.00424551963806</v>
+        <v>1.3704885344670901</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>15.1999999999999</v>
+        <v>5.5630169</v>
       </c>
       <c r="B77" s="1">
-        <v>15.1999999999999</v>
+        <v>5.274678E-2</v>
       </c>
       <c r="C77" s="1">
-        <v>1.00573635101318</v>
+        <v>1.4104362225068201</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>15.4</v>
+        <v>5.7644400999999998</v>
       </c>
       <c r="B78" s="1">
-        <v>15.4</v>
+        <v>5.4656610000000001E-2</v>
       </c>
       <c r="C78" s="1">
-        <v>0.99696904420852595</v>
+        <v>1.40735827302091</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>15.5999999999999</v>
+        <v>5.9731569000000002</v>
       </c>
       <c r="B79" s="1">
-        <v>15.5999999999999</v>
+        <v>5.6635600000000001E-2</v>
       </c>
       <c r="C79" s="1">
-        <v>1.00142645835876</v>
+        <v>1.3650293032871701</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>15.8</v>
+        <v>6.1894298000000001</v>
       </c>
       <c r="B80" s="1">
-        <v>15.8</v>
+        <v>5.8686229999999999E-2</v>
       </c>
       <c r="C80" s="1">
-        <v>1.00170314311981</v>
+        <v>1.2931862821696201</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>16</v>
+        <v>6.4135346000000002</v>
       </c>
       <c r="B81" s="1">
-        <v>16</v>
+        <v>6.0811121000000003E-2</v>
       </c>
       <c r="C81" s="1">
-        <v>1.00095391273498</v>
+        <v>1.20548663092516</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>6.6457538999999999</v>
+      </c>
+      <c r="B82">
+        <v>6.3012949999999998E-2</v>
+      </c>
+      <c r="C82">
+        <v>1.1157326921856801</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>6.8863797</v>
+      </c>
+      <c r="B83">
+        <v>6.5294488999999997E-2</v>
+      </c>
+      <c r="C83">
+        <v>1.0406144803803801</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>7.1357192999999999</v>
+      </c>
+      <c r="B84">
+        <v>6.7658648000000002E-2</v>
+      </c>
+      <c r="C84">
+        <v>0.98212214575911805</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>7.3940872999999998</v>
+      </c>
+      <c r="B85">
+        <v>7.0108413999999994E-2</v>
+      </c>
+      <c r="C85">
+        <v>0.94152196983513803</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>7.6618079999999997</v>
+      </c>
+      <c r="B86">
+        <v>7.2646855999999996E-2</v>
+      </c>
+      <c r="C86">
+        <v>0.91668849759582105</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>7.9392242</v>
+      </c>
+      <c r="B87">
+        <v>7.5277231999999999E-2</v>
+      </c>
+      <c r="C87">
+        <v>0.90282763340185701</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>8.2266846000000005</v>
+      </c>
+      <c r="B88">
+        <v>7.8002840000000004E-2</v>
+      </c>
+      <c r="C88">
+        <v>0.89706737345377496</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>8.5245533000000009</v>
+      </c>
+      <c r="B89">
+        <v>8.0827139000000006E-2</v>
+      </c>
+      <c r="C89">
+        <v>0.90146794457520096</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>8.8332061999999993</v>
+      </c>
+      <c r="B90">
+        <v>8.3753690000000006E-2</v>
+      </c>
+      <c r="C90">
+        <v>0.91352065789136705</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>9.1530360999999996</v>
+      </c>
+      <c r="B91">
+        <v>8.6786211000000002E-2</v>
+      </c>
+      <c r="C91">
+        <v>0.93412066327129395</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>9.4844445999999998</v>
+      </c>
+      <c r="B92">
+        <v>8.9928530000000007E-2</v>
+      </c>
+      <c r="C92">
+        <v>0.960085468806544</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>9.8278542000000009</v>
+      </c>
+      <c r="B93">
+        <v>9.3184628000000005E-2</v>
+      </c>
+      <c r="C93">
+        <v>0.98628899435442596</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>10.183698</v>
+      </c>
+      <c r="B94">
+        <v>9.6558622999999996E-2</v>
+      </c>
+      <c r="C94">
+        <v>1.00968300355582</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>10.552427</v>
+      </c>
+      <c r="B95">
+        <v>0.1000548</v>
+      </c>
+      <c r="C95">
+        <v>1.0279896850571499</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>10.9345</v>
+      </c>
+      <c r="B96">
+        <v>0.10367750000000001</v>
+      </c>
+      <c r="C96">
+        <v>1.0376188200544201</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>11.330411</v>
+      </c>
+      <c r="B97">
+        <v>0.1074314</v>
+      </c>
+      <c r="C97">
+        <v>1.0356685067004701</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>11.740665</v>
+      </c>
+      <c r="B98">
+        <v>0.1113213</v>
+      </c>
+      <c r="C98">
+        <v>1.02619945031225</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>12.165758</v>
+      </c>
+      <c r="B99">
+        <v>0.11535189999999999</v>
+      </c>
+      <c r="C99">
+        <v>1.01144619793336</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>12.606260000000001</v>
+      </c>
+      <c r="B100">
+        <v>0.1195286</v>
+      </c>
+      <c r="C100">
+        <v>0.99860549726394998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>13.062697999999999</v>
+      </c>
+      <c r="B101">
+        <v>0.12385640000000001</v>
+      </c>
+      <c r="C101">
+        <v>0.99062653383736698</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>13.535663</v>
+      </c>
+      <c r="B102">
+        <v>0.12834090000000001</v>
+      </c>
+      <c r="C102">
+        <v>0.98883106352772399</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>14.025765</v>
+      </c>
+      <c r="B103">
+        <v>0.13298789999999999</v>
+      </c>
+      <c r="C103">
+        <v>0.98853734360880996</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>14.533597</v>
+      </c>
+      <c r="B104">
+        <v>0.13780300000000001</v>
+      </c>
+      <c r="C104">
+        <v>0.99332130563926802</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>15.059820999999999</v>
+      </c>
+      <c r="B105">
+        <v>0.14279248999999999</v>
+      </c>
+      <c r="C105">
+        <v>0.99841184958887796</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>15.605104000000001</v>
+      </c>
+      <c r="B106">
+        <v>0.1479627</v>
+      </c>
+      <c r="C106">
+        <v>1.0008940780728599</v>
       </c>
     </row>
   </sheetData>
@@ -58452,8 +58727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8840F7E2-5CE9-4EF6-AC84-B046389B09EF}">
   <dimension ref="A1:C1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C1001"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
